--- a/biology/Zoologie/Chloreuptychia_hewitsonii/Chloreuptychia_hewitsonii.xlsx
+++ b/biology/Zoologie/Chloreuptychia_hewitsonii/Chloreuptychia_hewitsonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chloreuptychia hewitsonii  est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae, de la tribu des Satyrini, de la sous-tribu des Euptychiina.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Chloreuptychia hewitsonii  a été décrit par l'entomologiste britannique Arthur Gardiner Butler en 1867, sous le nom initial de Euptychia hewitsonii[1].
-Synonymie
-Euptychia hewitsonii Butler, 1867 - protonyme
-Euptychia polla (Möschler, 1883)
-Nom vernaculaire
-Chloreuptychia hewitsonii se nomme Hewitson's Satyr en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Chloreuptychia hewitsonii  a été décrit par l'entomologiste britannique Arthur Gardiner Butler en 1867, sous le nom initial de Euptychia hewitsonii.
 </t>
         </is>
       </c>
@@ -544,14 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chloreuptychia hewitsonii est un papillon aux ailes translucides avec sur le dessus chez le mâle une bande foncée le long de la nervure cubitale et chez la femelle un glacis bleu nacré.
-Le revers est gris bleu nacré avec trois bandes marron, discale et postdiscales, un ocelle noir cerné de jaune doublement pupillé à l'apex des ailes antérieures et aux ailes postérieures une ligne d'ocelles cernés de jaune dont les deux proches de l'apex et le gros proche de l'angle anal sont noir et doublement pupillés[3].
-</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Euptychia hewitsonii Butler, 1867 - protonyme
+Euptychia polla (Möschler, 1883)</t>
         </is>
       </c>
     </row>
@@ -576,10 +590,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia hewitsonii se nomme Hewitson's Satyr en anglais.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +627,150 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia hewitsonii est un papillon aux ailes translucides avec sur le dessus chez le mâle une bande foncée le long de la nervure cubitale et chez la femelle un glacis bleu nacré.
+Le revers est gris bleu nacré avec trois bandes marron, discale et postdiscales, un ocelle noir cerné de jaune doublement pupillé à l'apex des ailes antérieures et aux ailes postérieures une ligne d'ocelles cernés de jaune dont les deux proches de l'apex et le gros proche de l'angle anal sont noir et doublement pupillés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chloreuptychia hewitsonii est présent en Équateur, au Brésil, au Surinam et en Guyane[1],[3].
-Biotope
-Chloreuptychia hewitsonii réside en lisière des sous-bois humides et denses[3].
-Protection
-Pas de statut de protection particulier
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia hewitsonii est présent en Équateur, au Brésil, au Surinam et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloreuptychia hewitsonii réside en lisière des sous-bois humides et denses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chloreuptychia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chloreuptychia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
